--- a/data_year/zb/运输和邮电/货物周转量.xlsx
+++ b/data_year/zb/运输和邮电/货物周转量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,742 +488,434 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6129.4</v>
+        <v>43389.6721</v>
       </c>
       <c r="C2" t="n">
-        <v>282.87</v>
+        <v>1590.71574</v>
       </c>
       <c r="D2" t="n">
-        <v>13444</v>
+        <v>25937.34974</v>
       </c>
       <c r="E2" t="n">
-        <v>43.6</v>
+        <v>116.06769</v>
       </c>
       <c r="F2" t="n">
-        <v>50.268319</v>
+        <v>178.89816</v>
       </c>
       <c r="G2" t="n">
-        <v>23734.2</v>
+        <v>68427.5264</v>
       </c>
       <c r="H2" t="n">
-        <v>636</v>
+        <v>2197.1931593204</v>
       </c>
       <c r="I2" t="n">
-        <v>44320.5</v>
+        <v>141837.42298932</v>
       </c>
       <c r="J2" t="n">
-        <v>17073</v>
+        <v>45999</v>
       </c>
       <c r="K2" t="n">
-        <v>13770.49</v>
+        <v>27644.13317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6330.4</v>
+        <v>51374.7406</v>
       </c>
       <c r="C3" t="n">
-        <v>269.95</v>
+        <v>1695.402</v>
       </c>
       <c r="D3" t="n">
-        <v>14368.8</v>
+        <v>27631.66559</v>
       </c>
       <c r="E3" t="n">
-        <v>55.4</v>
+        <v>138.7176</v>
       </c>
       <c r="F3" t="n">
-        <v>43.72</v>
+        <v>173.91</v>
       </c>
       <c r="G3" t="n">
-        <v>25988.9</v>
+        <v>75423.8358</v>
       </c>
       <c r="H3" t="n">
-        <v>653</v>
+        <v>2885.4397</v>
       </c>
       <c r="I3" t="n">
-        <v>47709.9</v>
+        <v>159323.6</v>
       </c>
       <c r="J3" t="n">
-        <v>20873</v>
+        <v>49355</v>
       </c>
       <c r="K3" t="n">
-        <v>14694.1</v>
+        <v>29465.7852</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6782.5</v>
+        <v>59534.8647</v>
       </c>
       <c r="C4" t="n">
-        <v>376.51</v>
+        <v>1830.40628</v>
       </c>
       <c r="D4" t="n">
-        <v>15219.1</v>
+        <v>27220.49537</v>
       </c>
       <c r="E4" t="n">
-        <v>62.8</v>
+        <v>136.1843</v>
       </c>
       <c r="F4" t="n">
-        <v>51.55</v>
+        <v>163.889362</v>
       </c>
       <c r="G4" t="n">
-        <v>27510.6</v>
+        <v>81707.57889999999</v>
       </c>
       <c r="H4" t="n">
-        <v>683</v>
+        <v>3211.0419736467</v>
       </c>
       <c r="I4" t="n">
-        <v>50685.9</v>
+        <v>173804.460885647</v>
       </c>
       <c r="J4" t="n">
-        <v>21733</v>
+        <v>53412.1005</v>
       </c>
       <c r="K4" t="n">
-        <v>15658.4</v>
+        <v>29187.08595</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7099.4756</v>
+        <v>55738.0775</v>
       </c>
       <c r="C5" t="n">
-        <v>702.08</v>
+        <v>2173.9429579</v>
       </c>
       <c r="D5" t="n">
-        <v>16475.6</v>
+        <v>26845.01026</v>
       </c>
       <c r="E5" t="n">
-        <v>69</v>
+        <v>154.93737</v>
       </c>
       <c r="F5" t="n">
-        <v>57.9</v>
+        <v>170.29181</v>
       </c>
       <c r="G5" t="n">
-        <v>28715.8</v>
+        <v>79435.6507</v>
       </c>
       <c r="H5" t="n">
-        <v>739</v>
+        <v>3495.8895659654</v>
       </c>
       <c r="I5" t="n">
-        <v>53859.2</v>
+        <v>168013.800163865</v>
       </c>
       <c r="J5" t="n">
-        <v>22304.77</v>
+        <v>48705.3681</v>
       </c>
       <c r="K5" t="n">
-        <v>17246.7</v>
+        <v>29173.8905879</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7840.9</v>
+        <v>56846.9</v>
       </c>
       <c r="C6" t="n">
-        <v>914.2</v>
+        <v>2291.76702508631</v>
       </c>
       <c r="D6" t="n">
-        <v>18285.5</v>
+        <v>25103.4189</v>
       </c>
       <c r="E6" t="n">
-        <v>89.09999999999999</v>
+        <v>135.00451</v>
       </c>
       <c r="F6" t="n">
-        <v>71.8</v>
+        <v>187.771491</v>
       </c>
       <c r="G6" t="n">
-        <v>41428.7</v>
+        <v>92774.55557</v>
       </c>
       <c r="H6" t="n">
-        <v>815</v>
+        <v>4328.2750642596</v>
       </c>
       <c r="I6" t="n">
-        <v>69445</v>
+        <v>181667.692564846</v>
       </c>
       <c r="J6" t="n">
-        <v>32255</v>
+        <v>55935.0625</v>
       </c>
       <c r="K6" t="n">
-        <v>19288.8</v>
+        <v>27530.19044</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8693.200000000001</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1093.5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>19533.4</v>
-      </c>
-      <c r="E7" t="n">
-        <v>99.2</v>
-      </c>
+        <v>57955.7245</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>78.90000000000001</v>
+        <v>208.068329</v>
       </c>
       <c r="G7" t="n">
-        <v>49672.3</v>
+        <v>91772.4507</v>
       </c>
       <c r="H7" t="n">
-        <v>1088</v>
+        <v>4665.3501</v>
       </c>
       <c r="I7" t="n">
-        <v>80258.10000000001</v>
+        <v>178355.9014</v>
       </c>
       <c r="J7" t="n">
-        <v>38552</v>
+        <v>54236.0935</v>
       </c>
       <c r="K7" t="n">
-        <v>20726</v>
+        <v>23754.3078</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9754.247600000001</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1291.59</v>
-      </c>
-      <c r="D8" t="n">
-        <v>20557.16</v>
-      </c>
-      <c r="E8" t="n">
-        <v>105.66</v>
-      </c>
+        <v>61080.096779</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>94.27526</v>
+        <v>222.449337</v>
       </c>
       <c r="G8" t="n">
-        <v>55485.7495</v>
+        <v>97338.80226036</v>
       </c>
       <c r="H8" t="n">
-        <v>1551.1683353109</v>
+        <v>4195.8655</v>
       </c>
       <c r="I8" t="n">
-        <v>88839.8506953109</v>
+        <v>186629.47582636</v>
       </c>
       <c r="J8" t="n">
-        <v>42577.2996</v>
+        <v>58074.62</v>
       </c>
       <c r="K8" t="n">
-        <v>21954.41</v>
+        <v>23792.26195</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11354.6872</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1551.84</v>
-      </c>
-      <c r="D9" t="n">
-        <v>22112.46</v>
-      </c>
-      <c r="E9" t="n">
-        <v>132.6785</v>
-      </c>
+        <v>66771.51593704001</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>116.386674</v>
+        <v>243.552295</v>
       </c>
       <c r="G9" t="n">
-        <v>64284.846</v>
+        <v>98611.24593573999</v>
       </c>
       <c r="H9" t="n">
-        <v>1865.89131821887</v>
+        <v>4784.131259044</v>
       </c>
       <c r="I9" t="n">
-        <v>101418.811192219</v>
+        <v>197372.649346824</v>
       </c>
       <c r="J9" t="n">
-        <v>48685.8941</v>
+        <v>55083.85749593</v>
       </c>
       <c r="K9" t="n">
-        <v>23797</v>
+        <v>26962.20392</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>32868.1861</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1306.46390940885</v>
-      </c>
-      <c r="D10" t="n">
-        <v>23648.90271</v>
-      </c>
-      <c r="E10" t="n">
-        <v>150.88107</v>
-      </c>
+        <v>71249.2119327</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>119.602272</v>
+        <v>262.499107</v>
       </c>
       <c r="G10" t="n">
-        <v>50262.7045</v>
+        <v>99052.81545159</v>
       </c>
       <c r="H10" t="n">
-        <v>1944.03014784037</v>
+        <v>5300.7248522427</v>
       </c>
       <c r="I10" t="n">
-        <v>110300</v>
+        <v>204686.237053533</v>
       </c>
       <c r="J10" t="n">
-        <v>32851</v>
+        <v>51926.58023094</v>
       </c>
       <c r="K10" t="n">
-        <v>25106.2817094089</v>
+        <v>28820.98571</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37188.8205</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1462.70542</v>
-      </c>
-      <c r="D11" t="n">
-        <v>23649.8771</v>
-      </c>
-      <c r="E11" t="n">
-        <v>126.58672</v>
-      </c>
+        <v>59636.3915072418</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>126.230702</v>
+        <v>263.199032</v>
       </c>
       <c r="G11" t="n">
-        <v>57556.6722</v>
+        <v>103963.03521783</v>
       </c>
       <c r="H11" t="n">
-        <v>2022.4199617704</v>
+        <v>5349.7492735552</v>
       </c>
       <c r="I11" t="n">
-        <v>122133.31260377</v>
+        <v>199394.329739267</v>
       </c>
       <c r="J11" t="n">
-        <v>39524</v>
+        <v>54057.46926967</v>
       </c>
       <c r="K11" t="n">
-        <v>25239.16924</v>
+        <v>30181.95470864</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43389.6721</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1590.71574</v>
-      </c>
-      <c r="D12" t="n">
-        <v>25937.34974</v>
-      </c>
-      <c r="E12" t="n">
-        <v>116.06769</v>
-      </c>
+        <v>60171.8452</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>178.89816</v>
+        <v>240.201376</v>
       </c>
       <c r="G12" t="n">
-        <v>68427.5264</v>
+        <v>105834.4426</v>
       </c>
       <c r="H12" t="n">
-        <v>2197.1931593204</v>
+        <v>5184.78708891357</v>
       </c>
       <c r="I12" t="n">
-        <v>141837.42298932</v>
+        <v>201945.739509154</v>
       </c>
       <c r="J12" t="n">
-        <v>45999</v>
+        <v>89896.89999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>27644.13317</v>
+        <v>30514.46324424</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51374.7406</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1695.402</v>
-      </c>
-      <c r="D13" t="n">
-        <v>27631.66559</v>
-      </c>
-      <c r="E13" t="n">
-        <v>138.7176</v>
-      </c>
+        <v>69087.6531</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>173.91</v>
+        <v>278.157949</v>
       </c>
       <c r="G13" t="n">
-        <v>75423.8358</v>
+        <v>115577.5068</v>
       </c>
       <c r="H13" t="n">
-        <v>2885.4397</v>
+        <v>5419.069697</v>
       </c>
       <c r="I13" t="n">
-        <v>159323.6</v>
+        <v>223600.384752388</v>
       </c>
       <c r="J13" t="n">
-        <v>49355</v>
+        <v>97841.51342817</v>
       </c>
       <c r="K13" t="n">
-        <v>29465.7852</v>
+        <v>33237.99724481</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59534.8647</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1830.40628</v>
-      </c>
-      <c r="D14" t="n">
-        <v>27220.49537</v>
-      </c>
-      <c r="E14" t="n">
-        <v>136.1843</v>
-      </c>
+        <v>68958.03750647001</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>163.889362</v>
+        <v>254.1</v>
       </c>
       <c r="G14" t="n">
-        <v>81707.57889999999</v>
+        <v>121003.13735713</v>
       </c>
       <c r="H14" t="n">
-        <v>3211.0419736467</v>
+        <v>5621.73141746962</v>
       </c>
       <c r="I14" t="n">
-        <v>173804.460885647</v>
+        <v>231782.69599633</v>
       </c>
       <c r="J14" t="n">
-        <v>53412.1005</v>
+        <v>101977.41</v>
       </c>
       <c r="K14" t="n">
-        <v>29187.08595</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>55738.0775</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2173.9429579</v>
-      </c>
-      <c r="D15" t="n">
-        <v>26845.01026</v>
-      </c>
-      <c r="E15" t="n">
-        <v>154.93737</v>
-      </c>
-      <c r="F15" t="n">
-        <v>170.29181</v>
-      </c>
-      <c r="G15" t="n">
-        <v>79435.6507</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3495.8895659654</v>
-      </c>
-      <c r="I15" t="n">
-        <v>168013.800163865</v>
-      </c>
-      <c r="J15" t="n">
-        <v>48705.3681</v>
-      </c>
-      <c r="K15" t="n">
-        <v>29173.8905879</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>56846.9</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2291.76702508631</v>
-      </c>
-      <c r="D16" t="n">
-        <v>25103.4189</v>
-      </c>
-      <c r="E16" t="n">
-        <v>135.00451</v>
-      </c>
-      <c r="F16" t="n">
-        <v>187.771491</v>
-      </c>
-      <c r="G16" t="n">
-        <v>92774.55557</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4328.2750642596</v>
-      </c>
-      <c r="I16" t="n">
-        <v>181667.692564846</v>
-      </c>
-      <c r="J16" t="n">
-        <v>55935.0625</v>
-      </c>
-      <c r="K16" t="n">
-        <v>27530.19044</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>57955.7245</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>208.0683</v>
-      </c>
-      <c r="G17" t="n">
-        <v>91772.4507</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4665.3501</v>
-      </c>
-      <c r="I17" t="n">
-        <v>178355.9014</v>
-      </c>
-      <c r="J17" t="n">
-        <v>54236.0935</v>
-      </c>
-      <c r="K17" t="n">
-        <v>23754.3078</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>61080.096779</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>222.449337</v>
-      </c>
-      <c r="G18" t="n">
-        <v>97338.80226036</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4195.8655</v>
-      </c>
-      <c r="I18" t="n">
-        <v>186629.47582636</v>
-      </c>
-      <c r="J18" t="n">
-        <v>58074.6</v>
-      </c>
-      <c r="K18" t="n">
-        <v>23792.26195</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>66771.51593704001</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>243.552295</v>
-      </c>
-      <c r="G19" t="n">
-        <v>98611.24593573999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4784.131259044</v>
-      </c>
-      <c r="I19" t="n">
-        <v>197372.649346824</v>
-      </c>
-      <c r="J19" t="n">
-        <v>55083.85749593</v>
-      </c>
-      <c r="K19" t="n">
-        <v>26962.20392</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>71249.2119327</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>262.499107</v>
-      </c>
-      <c r="G20" t="n">
-        <v>99052.81545159</v>
-      </c>
-      <c r="H20" t="n">
-        <v>5300.7248522427</v>
-      </c>
-      <c r="I20" t="n">
-        <v>204686.237053533</v>
-      </c>
-      <c r="J20" t="n">
-        <v>51926.58</v>
-      </c>
-      <c r="K20" t="n">
-        <v>28820.98571</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>59636.3915072418</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>263.199032</v>
-      </c>
-      <c r="G21" t="n">
-        <v>103963.03521783</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5349.7492735552</v>
-      </c>
-      <c r="I21" t="n">
-        <v>199394.329739267</v>
-      </c>
-      <c r="J21" t="n">
-        <v>54057.47</v>
-      </c>
-      <c r="K21" t="n">
-        <v>30181.95470864</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>60171.8452</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>240.201376</v>
-      </c>
-      <c r="G22" t="n">
-        <v>105834.4426</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5450.38758382535</v>
-      </c>
-      <c r="I22" t="n">
-        <v>202211.340004065</v>
-      </c>
-      <c r="J22" t="n">
-        <v>89896.89999999999</v>
-      </c>
-      <c r="K22" t="n">
-        <v>30514.46324424</v>
+        <v>35945.68971526</v>
       </c>
     </row>
   </sheetData>
